--- a/build/해커톤 주제#3/example/example_output.xlsx
+++ b/build/해커톤 주제#3/example/example_output.xlsx
@@ -14,21 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>제품명</t>
+  </si>
   <si>
     <t>당기생산수량</t>
   </si>
   <si>
+    <t>제품별가중치</t>
+  </si>
+  <si>
     <t>제품 단위별 생산원가</t>
   </si>
   <si>
+    <t>제품 단위별 판매단가</t>
+  </si>
+  <si>
     <t>제품 단위별 원가율</t>
   </si>
   <si>
-    <t>제품 단위별 판매단가</t>
-  </si>
-  <si>
-    <t>제품별가중치</t>
+    <t>당기제품 총생산원가</t>
+  </si>
+  <si>
+    <t>305AEC9DBCE-84b4</t>
+  </si>
+  <si>
+    <t>팬톤블랙3343EBACB4-3bbd</t>
+  </si>
+  <si>
+    <t>성진_유EBB0B13-32ac</t>
+  </si>
+  <si>
+    <t>215일EBB09834-03a6</t>
+  </si>
+  <si>
+    <t>회색양면EC9584EC8AA4-c950</t>
   </si>
 </sst>
 </file>
@@ -386,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +428,127 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>0.00103668391671824</v>
+      </c>
+      <c r="D2">
+        <v>46411</v>
+      </c>
+      <c r="E2">
+        <v>22000</v>
+      </c>
+      <c r="F2">
+        <v>2.11</v>
+      </c>
+      <c r="G2">
+        <v>2645440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>0.0008866375603511264</v>
+      </c>
+      <c r="D3">
+        <v>34808</v>
+      </c>
+      <c r="E3">
+        <v>25200</v>
+      </c>
+      <c r="F3">
+        <v>1.38</v>
+      </c>
+      <c r="G3">
+        <v>2262547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0.0006820288925777895</v>
+      </c>
+      <c r="D4">
+        <v>34808</v>
+      </c>
+      <c r="E4">
+        <v>25200</v>
+      </c>
+      <c r="F4">
+        <v>1.38</v>
+      </c>
+      <c r="G4">
+        <v>1740420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>0.0006820288925777895</v>
+      </c>
+      <c r="D5">
+        <v>29007</v>
+      </c>
+      <c r="E5">
+        <v>24800</v>
+      </c>
+      <c r="F5">
+        <v>1.17</v>
+      </c>
+      <c r="G5">
+        <v>1740420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>254</v>
+      </c>
+      <c r="C6">
+        <v>0.002887255645245976</v>
+      </c>
+      <c r="D6">
+        <v>29007</v>
+      </c>
+      <c r="E6">
+        <v>24800</v>
+      </c>
+      <c r="F6">
+        <v>1.17</v>
+      </c>
+      <c r="G6">
+        <v>7367781</v>
       </c>
     </row>
   </sheetData>
